--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.3332190829615296</v>
+      </c>
+      <c r="C2">
         <v>-0.8011660996346401</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.5787938608431268</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1949980559329599</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8798839467072684</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1878585623255973</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.4273069063282261</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4640348830873968</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.290528957474712</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.6347307473531471</v>
-      </c>
-      <c r="K2">
-        <v>-0.02341949237247376</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.379959960477767</v>
+      </c>
+      <c r="C3">
         <v>0.9961641555676001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.681050046341908</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9890246619602374</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.228473005962866</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.265200982722037</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.091695057109352</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.435896846987787</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.7777466072621664</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.176861555113949</v>
-      </c>
-      <c r="K3">
-        <v>1.115425012992372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.6848858907743085</v>
+      </c>
+      <c r="C4">
         <v>-0.007139493607362657</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2323088503952662</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2690368271544369</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.095530901541752</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4397326914201872</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.2184175483054337</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1806973995463494</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.119260857424772</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.3149050776923316</v>
-      </c>
-      <c r="K4">
-        <v>0.6638963143867453</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.2394483440026288</v>
+      </c>
+      <c r="C5">
         <v>0.2761763207617995</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.102670395149115</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4468721850275498</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.211278054698071</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.187836893153712</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1264003510321347</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.3077655840849689</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.671035807994108</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.4439199035461818</v>
-      </c>
-      <c r="K5">
-        <v>-0.1895398258799067</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.8264940743873155</v>
+      </c>
+      <c r="C6">
         <v>0.1706958642657503</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4874543754598706</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.0883394276080875</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.1497759697296649</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.5839419048467684</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.3948594872323085</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1677435827843823</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.4657161466417062</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.0383191879861019</v>
-      </c>
-      <c r="K6">
-        <v>-0.2046561426742488</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.6581502397256208</v>
+      </c>
+      <c r="C7">
         <v>-0.2590352918738378</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.3204718339954152</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.7546377691125187</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2241636229665582</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.00295228148136796</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6364120109074565</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.2090150522518522</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.3753520069399991</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.2526409904991733</v>
-      </c>
-      <c r="K7">
-        <v>-0.205407253944033</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.0614365421215774</v>
+      </c>
+      <c r="C8">
         <v>-0.4956024772386809</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.483198914840396</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2560830103924698</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.3773767190336187</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0500202396219856</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1163167150661613</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.006394301374664513</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.05362803792980481</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.3429906935926468</v>
-      </c>
-      <c r="K8">
-        <v>-0.08893865846892673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.9788013920790769</v>
+      </c>
+      <c r="C9">
         <v>0.7516854876311507</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1182257582050622</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5456227168606665</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3792857621725196</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.5019967786133455</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5492305151684858</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1526117836460341</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.4066638187697542</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.6267882086433268</v>
-      </c>
-      <c r="K9">
-        <v>0.3909997600566587</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.6334597294260885</v>
+      </c>
+      <c r="C10">
         <v>-0.2060627707704842</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3723997254586311</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.2496887090178053</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.202454972462665</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.5990737039851166</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3450216688613965</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.1248972789878239</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.3606857275744921</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.5396584850452768</v>
-      </c>
-      <c r="K10">
-        <v>-0.5502190153045978</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.1663369546881469</v>
+      </c>
+      <c r="C11">
         <v>-0.04362593824732108</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.00360779830781921</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.3930109332146324</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.1389588980909123</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0811654917826603</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1546229568040079</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.3335957142747926</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.3441562445341136</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5518753546922437</v>
-      </c>
-      <c r="K11">
-        <v>-0.334666455217339</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.04723373655514029</v>
+      </c>
+      <c r="C12">
         <v>-0.3493849949673113</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.09533295984359125</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1247914300299814</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1109970185566868</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.2899697760274715</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.3005303062867926</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.5082494164449226</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.2910405169700179</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.0186456522880436</v>
-      </c>
-      <c r="K12">
-        <v>-0.1356584815439604</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.2540520351237201</v>
+      </c>
+      <c r="C13">
         <v>0.4741764249972927</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2383879764106245</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.05941521893983981</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.04885468868051879</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.1588644214776113</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.05834447799729348</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3680306472553549</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2137265134233509</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.8641529346425341</v>
-      </c>
-      <c r="K13">
-        <v>0.647987886024325</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.2357884485866682</v>
+      </c>
+      <c r="C14">
         <v>-0.4147612060574529</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.4253217363167739</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.633040846474904</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.4158319469999993</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.1061457777419378</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2604499115739418</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.3899765096452414</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1738114610270322</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2332176680079241</v>
-      </c>
-      <c r="K14">
-        <v>0.2658245491694957</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.01056053025932102</v>
+      </c>
+      <c r="C15">
         <v>-0.2182796404174511</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.001070740942546333</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3086154283155151</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.1543112944835111</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.8047377157026943</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.5885726670844852</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.1815435380495288</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.6805857552269486</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.5217368420714361</v>
-      </c>
-      <c r="K15">
-        <v>0.5779006630416801</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.2172088994749047</v>
+      </c>
+      <c r="C16">
         <v>0.5268950687329662</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3725909349009622</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.023017356120145</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.8068523075019363</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3998231784669799</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.8988653956443997</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.7400164824888872</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.7961803034591312</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3.045983143070524</v>
-      </c>
-      <c r="K16">
-        <v>10.51513347392782</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.3096861692580615</v>
+      </c>
+      <c r="C17">
         <v>0.1553820354260574</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.8058084566452406</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5896434080270315</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1826142789920752</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.681656496169495</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.5228075830139824</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5789714039842264</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.828774243595618</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.29792457445291</v>
-      </c>
-      <c r="K17">
-        <v>-7.873337225684557</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.154304133832004</v>
+      </c>
+      <c r="C18">
         <v>0.4961222873871792</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2799572387689701</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.1270718902659863</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.3719703269114335</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2131214137559209</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.269285234726165</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.519088074337557</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.988238405194851</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.183023394942618</v>
-      </c>
-      <c r="K18">
-        <v>-0.04335184796346914</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.6504264212191833</v>
+      </c>
+      <c r="C19">
         <v>0.4342613726009741</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.02723224356601772</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5262744607434375</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3674255475879249</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.423589368558169</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.673392208169561</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10.14254253902685</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.028719261110615</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.1109522858685349</v>
-      </c>
-      <c r="K19">
-        <v>2.258522757667927</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.2161650486182091</v>
+      </c>
+      <c r="C20">
         <v>-0.6231941776531655</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.1241519604757457</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.2830008736312583</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.2268370526610142</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.022965786950378</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.492116117807671</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.679145682329798</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.5394741353506483</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.608096336448744</v>
-      </c>
-      <c r="K20">
-        <v>-1.831933650074586</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.4070291290349564</v>
+      </c>
+      <c r="C21">
         <v>0.09201308814246346</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.06683582501304909</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.01067200404280504</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.239130835568587</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9.708281166425881</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.462980633711588</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.3233090867324392</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.824261385066953</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.615768601456377</v>
-      </c>
-      <c r="K21">
-        <v>-1.676942779870578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4990422171774198</v>
+      </c>
+      <c r="C22">
         <v>0.3401933040219072</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3963571249921513</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.646159964603544</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.11531029546084</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.055951504676631</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.08372004230251717</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.231290514101909</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.20873947242142</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1.269913650835621</v>
-      </c>
-      <c r="K22">
-        <v>0.7715422863206332</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.1588489131555126</v>
+      </c>
+      <c r="C23">
         <v>-0.1026850921852685</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.147117747426124</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>9.616268078283417</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.554993721854052</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.4153221748749026</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.73224829692449</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.70778168959884</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-1.768955868013041</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2725000691432133</v>
-      </c>
-      <c r="K23">
-        <v>-0.3100944678904277</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.05616382097024405</v>
+      </c>
+      <c r="C24">
         <v>2.305966660581636</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.77511699143893</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.396144808698539</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.2564732617193901</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.891097210080002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-1.548932776443328</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1.610106954857529</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.4313489822987259</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.1512455547349151</v>
-      </c>
-      <c r="K24">
-        <v>-0.05557051392555735</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>2.249802839611392</v>
+      </c>
+      <c r="C25">
         <v>9.718953170468685</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-8.452308629668783</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.3126370826896341</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.834933389109758</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-1.605096597413572</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-1.666270775827773</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.3751851613284818</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.2074093757051592</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.1117343348958014</v>
-      </c>
-      <c r="K25">
-        <v>-0.3721533718945242</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>7.469150330857293</v>
+      </c>
+      <c r="C26">
         <v>-10.70211146928018</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-2.562439922301026</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.4148694505016339</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-3.854899437024964</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3.916073615439165</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-1.87461767828291</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2.457212215316551</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-2.361537174507194</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-2.621956211505916</v>
-      </c>
-      <c r="K26">
-        <v>-1.786501215347425</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-18.17126180013747</v>
+      </c>
+      <c r="C27">
         <v>-10.03159025315832</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-7.884019781358927</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-11.32404976788226</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-11.38522394629646</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-9.343768009140204</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-9.926362546173845</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-9.830687505364487</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-10.09110654236321</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-9.255651546204719</v>
-      </c>
-      <c r="K27">
-        <v>-9.35573090610734</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>8.13967154697915</v>
+      </c>
+      <c r="C28">
         <v>10.28724201877854</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6.847212032255212</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6.786037853841011</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>8.827493790997265</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8.244899253963624</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8.340574294772981</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8.080155257774258</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8.91561025393275</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>8.815530894030129</v>
-      </c>
-      <c r="K28">
-        <v>8.461744387950432</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>2.147570471799392</v>
+      </c>
+      <c r="C29">
         <v>-1.292459514723937</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-1.353633693138139</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.6878222440181159</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.1052277069844749</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.2009027477938327</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.0595162892048901</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.7759387069536011</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.6758593470509796</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.3220728409712834</v>
-      </c>
-      <c r="K29">
-        <v>0.4702502314037287</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-3.44002998652333</v>
+      </c>
+      <c r="C30">
         <v>-3.501204164937531</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-1.459748227781277</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-2.042342764814918</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1.94666772400556</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-2.207086761004283</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.371631764845791</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.471711124748413</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1.825497630828109</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.677320240395664</v>
-      </c>
-      <c r="K30">
-        <v>-1.519874251391509</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>-0.06117417841420103</v>
+      </c>
+      <c r="C31">
         <v>1.980281758742053</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.397687221708412</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.49336226251777</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.232943225519047</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.068398221677539</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.968318861774917</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.614532355695221</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.762709746127666</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.920155735131821</v>
-      </c>
-      <c r="K31">
-        <v>1.41949627860575</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>2.041455937156254</v>
+      </c>
+      <c r="C32">
         <v>1.458861400122613</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.554536440931971</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.294117403933248</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.12957240009174</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.029493040189118</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.675706534109422</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.823883924541867</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.981329913546022</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.480670457019951</v>
-      </c>
-      <c r="K32">
-        <v>1.761028337555421</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C33">
         <v>-0.4869194962242832</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.747338533223006</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.0881164629354852</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-0.01196289696713632</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.3657494030468326</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.2175720126143872</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.06012602361023223</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.560785480136303</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.2804275996008339</v>
-      </c>
-      <c r="K33">
-        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C34">
         <v>-0.164743996189365</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.6707109999691262</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5706316400665047</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2168451339868084</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.3650225244192538</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.5224685134234088</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.02180905689733798</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.3021669374328071</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.1301920795877955</v>
-      </c>
-      <c r="K34">
-        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C35">
         <v>0.5750359591597685</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.4749565992571469</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1211700931774507</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.269347483609896</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.426793472614051</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.07386598391201982</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.2064918966234494</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.0345170387784377</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.3403795785247692</v>
-      </c>
-      <c r="K35">
-        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C36">
         <v>0.7353756362558697</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3815891301761735</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.5297665206086188</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.6872125096127738</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.186553053086703</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.4669109336221722</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.2949360757771605</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.600798615523492</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.01153133716379418</v>
-      </c>
-      <c r="K36">
-        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C37">
         <v>-0.4538658659823178</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.3056884755498724</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.1482424865457174</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.6489019430717882</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.3685440625363191</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.5405189203813308</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-0.2346563806349992</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.8469863333222853</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-0.1586149481231739</v>
-      </c>
-      <c r="K37">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,30 +1842,33 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C38">
         <v>-0.2056091156472509</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.04816312664309591</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.5488225831691667</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.2684647026336975</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.4404395604787092</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-0.1345770207323777</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-0.7469069734196638</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-0.05853558822055238</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -1874,27 +1877,30 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C39">
         <v>0.3056233794366003</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.1950360770894705</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.08532180344599868</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.08665305439901295</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.2192094853473185</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.3931204673399676</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.2952509178591439</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -1903,24 +1909,27 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C40">
         <v>-0.3432134675219158</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.06285558698644665</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.2348304448314583</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.0710320949148732</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.541297857772413</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.1470735274266985</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -1929,21 +1938,24 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C41">
         <v>-0.2203015759906016</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.3922764338356133</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>-0.0864138940892818</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.698743846776568</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-0.01037246157745647</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -1952,18 +1964,21 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C42">
         <v>0.1083830226904575</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.414245562436789</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-0.1980843902504972</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.4902869949486143</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -1972,15 +1987,18 @@
         <v>51</v>
       </c>
       <c r="B43">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C43">
         <v>0.1338876819013198</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.4784422707859664</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2099291144131452</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -1989,12 +2007,15 @@
         <v>52</v>
       </c>
       <c r="B44">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C44">
         <v>-0.3064674129409547</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.3819039722581568</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -2003,9 +2024,12 @@
         <v>53</v>
       </c>
       <c r="B45">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C45">
         <v>0.07604143251182532</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
+        <v>0.6883713851991116</v>
+      </c>
+      <c r="C46">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
